--- a/18회차_실습체크리스트_황동민.xlsx
+++ b/18회차_실습체크리스트_황동민.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fullstack\mySQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -634,19 +634,19 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -728,15 +728,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,27 +748,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1460,7 +1460,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>9526</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1527,7 +1527,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>9526</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1594,7 +1594,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>193431</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1661,7 +1661,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>193431</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1728,7 +1728,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>193431</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1795,7 +1795,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>266700</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>193431</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2546,7 +2546,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2558,14 +2558,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="14" t="s">
@@ -2754,32 +2754,32 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/18회차_실습체크리스트_황동민.xlsx
+++ b/18회차_실습체크리스트_황동민.xlsx
@@ -692,7 +692,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -740,11 +740,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2545,7 +2545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
